--- a/data/Fakespeak-ENG/Analysis_output/social_media/Fakespeak_social_media_ngrams_headlines.xlsx
+++ b/data/Fakespeak-ENG/Analysis_output/social_media/Fakespeak_social_media_ngrams_headlines.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="671">
   <si>
     <t>n</t>
   </si>
@@ -30,33 +30,27 @@
     <t>ngram_count</t>
   </si>
   <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
     <t>report</t>
   </si>
   <si>
     <t>blue</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
     <t>wants</t>
   </si>
   <si>
-    <t>this</t>
-  </si>
-  <si>
     <t>soros</t>
   </si>
   <si>
@@ -78,24 +72,12 @@
     <t>joe</t>
   </si>
   <si>
-    <t>for</t>
-  </si>
-  <si>
     <t>climate</t>
   </si>
   <si>
     <t>biden</t>
   </si>
   <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>against</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
     <t>york</t>
   </si>
   <si>
@@ -123,12 +105,6 @@
     <t>whistleblowers</t>
   </si>
   <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>was</t>
-  </si>
-  <si>
     <t>warn</t>
   </si>
   <si>
@@ -144,15 +120,9 @@
     <t>veterans</t>
   </si>
   <si>
-    <t>ve</t>
-  </si>
-  <si>
     <t>unprecedented</t>
   </si>
   <si>
-    <t>under</t>
-  </si>
-  <si>
     <t>ukrainian</t>
   </si>
   <si>
@@ -180,6 +150,36 @@
     <t>tj</t>
   </si>
   <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>thoughts</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>texas</t>
+  </si>
+  <si>
+    <t>teaching</t>
+  </si>
+  <si>
+    <t>taxpayers</t>
+  </si>
+  <si>
+    <t>tai</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
     <t>new deal</t>
   </si>
   <si>
@@ -204,9 +204,6 @@
     <t>your name</t>
   </si>
   <si>
-    <t>you to</t>
-  </si>
-  <si>
     <t>you agree</t>
   </si>
   <si>
@@ -225,19 +222,22 @@
     <t>with treason</t>
   </si>
   <si>
-    <t>with the</t>
-  </si>
-  <si>
     <t>wisconsin they</t>
   </si>
   <si>
     <t>wireless devices</t>
   </si>
   <si>
-    <t>why isn</t>
-  </si>
-  <si>
-    <t>why does</t>
+    <t>who wants</t>
+  </si>
+  <si>
+    <t>who broke</t>
+  </si>
+  <si>
+    <t>whistleblowers into</t>
+  </si>
+  <si>
+    <t>while real</t>
   </si>
   <si>
     <t>we need blue</t>
@@ -279,12 +279,6 @@
     <t>wireless devices such</t>
   </si>
   <si>
-    <t>why isn the</t>
-  </si>
-  <si>
-    <t>why does this</t>
-  </si>
-  <si>
     <t>who wants donald</t>
   </si>
   <si>
@@ -300,6 +294,12 @@
     <t>was actually facing</t>
   </si>
   <si>
+    <t>warn emf from</t>
+  </si>
+  <si>
+    <t>wants to ban</t>
+  </si>
+  <si>
     <t>we need blue new</t>
   </si>
   <si>
@@ -420,45 +420,21 @@
     <t>wants to ban 9mm pistols</t>
   </si>
   <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>on</t>
+    <t>coronavirus</t>
   </si>
   <si>
     <t>covid</t>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>by</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
     <t>may</t>
   </si>
   <si>
     <t>bill</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
     <t>vaccine</t>
   </si>
   <si>
@@ -471,42 +447,21 @@
     <t>votes</t>
   </si>
   <si>
-    <t>up</t>
-  </si>
-  <si>
     <t>people</t>
   </si>
   <si>
     <t>michigan</t>
   </si>
   <si>
-    <t>his</t>
-  </si>
-  <si>
     <t>george</t>
   </si>
   <si>
     <t>china</t>
   </si>
   <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
     <t>video</t>
   </si>
   <si>
-    <t>they</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>than</t>
-  </si>
-  <si>
     <t>says</t>
   </si>
   <si>
@@ -525,18 +480,9 @@
     <t>breaking</t>
   </si>
   <si>
-    <t>been</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
-    <t>will</t>
-  </si>
-  <si>
     <t>voters</t>
   </si>
   <si>
@@ -549,7 +495,58 @@
     <t>state</t>
   </si>
   <si>
-    <t>over</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>obama</t>
+  </si>
+  <si>
+    <t>nancy</t>
+  </si>
+  <si>
+    <t>million</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>gates</t>
+  </si>
+  <si>
+    <t>floyd</t>
+  </si>
+  <si>
+    <t>democrats</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>caught</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>ballots</t>
+  </si>
+  <si>
+    <t>whitmer</t>
+  </si>
+  <si>
+    <t>vote</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>supporters</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>riots</t>
   </si>
   <si>
     <t>covid 19</t>
@@ -603,6 +600,12 @@
     <t>to create</t>
   </si>
   <si>
+    <t>test rate</t>
+  </si>
+  <si>
+    <t>swing state</t>
+  </si>
+  <si>
     <t>tests positive for</t>
   </si>
   <si>
@@ -651,9 +654,6 @@
     <t>you re fired</t>
   </si>
   <si>
-    <t>you don have</t>
-  </si>
-  <si>
     <t>york times editor</t>
   </si>
   <si>
@@ -663,6 +663,9 @@
     <t>yells at people</t>
   </si>
   <si>
+    <t>would impact 74</t>
+  </si>
+  <si>
     <t>trying to include abortion</t>
   </si>
   <si>
@@ -678,9 +681,6 @@
     <t>you re fired on</t>
   </si>
   <si>
-    <t>you don have to</t>
-  </si>
-  <si>
     <t>york times editor admits</t>
   </si>
   <si>
@@ -723,6 +723,9 @@
     <t>with nuclear missile trump</t>
   </si>
   <si>
+    <t>with multiple confirmed patients</t>
+  </si>
+  <si>
     <t>trying to include abortion funding</t>
   </si>
   <si>
@@ -732,9 +735,6 @@
     <t>you re fired on the</t>
   </si>
   <si>
-    <t>you don have to be</t>
-  </si>
-  <si>
     <t>york times editor admits biden</t>
   </si>
   <si>
@@ -783,57 +783,33 @@
     <t>with election software glitch company</t>
   </si>
   <si>
+    <t>with democratic congressman sponsor of</t>
+  </si>
+  <si>
     <t>vaccinated</t>
   </si>
   <si>
-    <t>after</t>
-  </si>
-  <si>
     <t>pfizer</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>cdc</t>
   </si>
   <si>
-    <t>more</t>
-  </si>
-  <si>
     <t>deaths</t>
   </si>
   <si>
-    <t>their</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
     <t>military</t>
   </si>
   <si>
-    <t>were</t>
-  </si>
-  <si>
     <t>vaccines</t>
   </si>
   <si>
-    <t>or</t>
-  </si>
-  <si>
     <t>death</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>before</t>
-  </si>
-  <si>
     <t>women</t>
   </si>
   <si>
@@ -849,13 +825,49 @@
     <t>president</t>
   </si>
   <si>
-    <t>in the</t>
-  </si>
-  <si>
-    <t>from the</t>
-  </si>
-  <si>
-    <t>to be</t>
+    <t>fully</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>scott</t>
+  </si>
+  <si>
+    <t>rick</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>flu</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>arrests</t>
+  </si>
+  <si>
+    <t>vaccinations</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>shows</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>likely</t>
   </si>
   <si>
     <t>sen rick</t>
@@ -864,9 +876,6 @@
     <t>rick scott</t>
   </si>
   <si>
-    <t>of the</t>
-  </si>
-  <si>
     <t>military arrests</t>
   </si>
   <si>
@@ -891,18 +900,30 @@
     <t>vaccinated people</t>
   </si>
   <si>
-    <t>their own</t>
-  </si>
-  <si>
-    <t>out of</t>
-  </si>
-  <si>
     <t>navy seals</t>
   </si>
   <si>
     <t>millions of</t>
   </si>
   <si>
+    <t>inflation crisis</t>
+  </si>
+  <si>
+    <t>gavin newsom</t>
+  </si>
+  <si>
+    <t>election integrity</t>
+  </si>
+  <si>
+    <t>biden is</t>
+  </si>
+  <si>
+    <t>absentee ballots</t>
+  </si>
+  <si>
+    <t>19 vaccines</t>
+  </si>
+  <si>
     <t>sen rick scott</t>
   </si>
   <si>
@@ -1086,18 +1107,12 @@
     <t>space</t>
   </si>
   <si>
-    <t>into</t>
-  </si>
-  <si>
     <t>research</t>
   </si>
   <si>
     <t>national</t>
   </si>
   <si>
-    <t>he</t>
-  </si>
-  <si>
     <t>children</t>
   </si>
   <si>
@@ -1113,24 +1128,51 @@
     <t>putin</t>
   </si>
   <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>million</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
     <t>man</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>arrest</t>
+  </si>
+  <si>
+    <t>americans</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>whistleblower</t>
+  </si>
+  <si>
+    <t>whilst</t>
+  </si>
+  <si>
+    <t>vaccination</t>
+  </si>
+  <si>
+    <t>united</t>
+  </si>
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>syndrome</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>suddenly</t>
+  </si>
+  <si>
     <t>in ukraine</t>
   </si>
   <si>
@@ -1140,15 +1182,9 @@
     <t>19 vaccine</t>
   </si>
   <si>
-    <t>you can</t>
-  </si>
-  <si>
     <t>whilst you</t>
   </si>
   <si>
-    <t>what in</t>
-  </si>
-  <si>
     <t>vaccinated are</t>
   </si>
   <si>
@@ -1179,15 +1215,21 @@
     <t>in 2021</t>
   </si>
   <si>
+    <t>first man</t>
+  </si>
+  <si>
+    <t>distracted by</t>
+  </si>
+  <si>
+    <t>covid vaccines</t>
+  </si>
+  <si>
     <t>vaccinated are developing</t>
   </si>
   <si>
     <t>yuri gagarin the</t>
   </si>
   <si>
-    <t>yours when they</t>
-  </si>
-  <si>
     <t>your government quietly</t>
   </si>
   <si>
@@ -1200,18 +1242,9 @@
     <t>you were distracted</t>
   </si>
   <si>
-    <t>you ve been</t>
-  </si>
-  <si>
     <t>you swallow it</t>
   </si>
   <si>
-    <t>you can do</t>
-  </si>
-  <si>
-    <t>you can be</t>
-  </si>
-  <si>
     <t>york wetlands with</t>
   </si>
   <si>
@@ -1236,12 +1269,21 @@
     <t>with the stroke</t>
   </si>
   <si>
+    <t>with significantly reduced</t>
+  </si>
+  <si>
+    <t>with population under</t>
+  </si>
+  <si>
+    <t>with pcr test</t>
+  </si>
+  <si>
+    <t>with new economic</t>
+  </si>
+  <si>
     <t>yuri gagarin the first</t>
   </si>
   <si>
-    <t>yours when they re</t>
-  </si>
-  <si>
     <t>your government quietly confirmed</t>
   </si>
   <si>
@@ -1257,9 +1299,6 @@
     <t>you ve been distracted</t>
   </si>
   <si>
-    <t>you can do to</t>
-  </si>
-  <si>
     <t>you can be vaccinated</t>
   </si>
   <si>
@@ -1296,12 +1335,15 @@
     <t>with new economic system</t>
   </si>
   <si>
+    <t>with climate science center</t>
+  </si>
+  <si>
+    <t>wisconsin elementary school students</t>
+  </si>
+  <si>
     <t>yuri gagarin the first man</t>
   </si>
   <si>
-    <t>yours when they re in</t>
-  </si>
-  <si>
     <t>your government quietly confirmed the</t>
   </si>
   <si>
@@ -1356,52 +1398,85 @@
     <t>wins 100 votes from town</t>
   </si>
   <si>
+    <t>will have microchip that transmits</t>
+  </si>
+  <si>
     <t>wef</t>
   </si>
   <si>
-    <t>gates</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
     <t>child</t>
   </si>
   <si>
-    <t>about</t>
-  </si>
-  <si>
     <t>shots</t>
   </si>
   <si>
     <t>sex</t>
   </si>
   <si>
-    <t>now</t>
-  </si>
-  <si>
     <t>mrna</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
     <t>funded</t>
   </si>
   <si>
-    <t>found</t>
-  </si>
-  <si>
     <t>blood</t>
   </si>
   <si>
-    <t>americans</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
-    <t>will be</t>
+    <t>un</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>scientists</t>
+  </si>
+  <si>
+    <t>schwab</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>reveals</t>
+  </si>
+  <si>
+    <t>pilots</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>klaus</t>
+  </si>
+  <si>
+    <t>fema</t>
+  </si>
+  <si>
+    <t>exclusive</t>
+  </si>
+  <si>
+    <t>estimated</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>due</t>
   </si>
   <si>
     <t>vaccines are</t>
@@ -1431,9 +1506,6 @@
     <t>un says</t>
   </si>
   <si>
-    <t>to the</t>
-  </si>
-  <si>
     <t>to sex</t>
   </si>
   <si>
@@ -1446,6 +1518,15 @@
     <t>seals save</t>
   </si>
   <si>
+    <t>people who</t>
+  </si>
+  <si>
+    <t>of people</t>
+  </si>
+  <si>
+    <t>of aluminum</t>
+  </si>
+  <si>
     <t>will be excluded</t>
   </si>
   <si>
@@ -1626,12 +1707,6 @@
     <t>world prediction was for today</t>
   </si>
   <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>schwab</t>
-  </si>
-  <si>
     <t>roads</t>
   </si>
   <si>
@@ -1641,12 +1716,6 @@
     <t>presidential</t>
   </si>
   <si>
-    <t>klaus</t>
-  </si>
-  <si>
-    <t>had</t>
-  </si>
-  <si>
     <t>global</t>
   </si>
   <si>
@@ -1656,9 +1725,6 @@
     <t>donald</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -1701,9 +1767,6 @@
     <t>trans</t>
   </si>
   <si>
-    <t>times</t>
-  </si>
-  <si>
     <t>tillis</t>
   </si>
   <si>
@@ -1719,9 +1782,6 @@
     <t>suppressed</t>
   </si>
   <si>
-    <t>supply</t>
-  </si>
-  <si>
     <t>suggesting</t>
   </si>
   <si>
@@ -1729,6 +1789,15 @@
   </si>
   <si>
     <t>stormy</t>
+  </si>
+  <si>
+    <t>statement</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>sparks</t>
   </si>
   <si>
     <t>new york</t>
@@ -2345,7 +2414,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2356,7 +2425,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2367,7 +2436,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2378,7 +2447,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2389,7 +2458,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2400,7 +2469,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2521,7 +2590,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2532,7 +2601,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2543,7 +2612,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2554,7 +2623,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2565,7 +2634,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3799,7 +3868,7 @@
         <v>133</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3807,10 +3876,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3818,10 +3887,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3829,10 +3898,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3840,10 +3909,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3851,10 +3920,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3862,10 +3931,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3873,10 +3942,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3884,10 +3953,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3895,10 +3964,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3906,10 +3975,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3917,10 +3986,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3928,10 +3997,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3939,10 +4008,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3950,10 +4019,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3961,10 +4030,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3972,10 +4041,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3983,10 +4052,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3994,10 +4063,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4005,10 +4074,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4016,10 +4085,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4027,10 +4096,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4038,10 +4107,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4049,10 +4118,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4060,10 +4129,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4071,10 +4140,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4082,10 +4151,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4093,10 +4162,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4104,10 +4173,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4118,7 +4187,7 @@
         <v>158</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4129,7 +4198,7 @@
         <v>159</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4140,7 +4209,7 @@
         <v>160</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4151,7 +4220,7 @@
         <v>161</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4162,7 +4231,7 @@
         <v>162</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4173,7 +4242,7 @@
         <v>163</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4184,7 +4253,7 @@
         <v>164</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4195,7 +4264,7 @@
         <v>165</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4206,7 +4275,7 @@
         <v>166</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4217,7 +4286,7 @@
         <v>167</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4228,7 +4297,7 @@
         <v>168</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4239,7 +4308,7 @@
         <v>169</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4247,10 +4316,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4261,7 +4330,7 @@
         <v>170</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4272,7 +4341,7 @@
         <v>171</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4280,10 +4349,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4291,10 +4360,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4305,7 +4374,7 @@
         <v>173</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4316,7 +4385,7 @@
         <v>174</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4324,10 +4393,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4335,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4346,7 +4415,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52">
         <v>10</v>
@@ -4368,7 +4437,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -4379,7 +4448,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -4390,7 +4459,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -4401,7 +4470,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -4412,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -4423,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -4434,7 +4503,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -4445,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -4456,7 +4525,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -4467,7 +4536,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -4478,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -4489,7 +4558,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -4500,7 +4569,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -4511,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -4522,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -4533,7 +4602,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -4544,7 +4613,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -4555,7 +4624,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -4566,7 +4635,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -4577,7 +4646,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -4588,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -4599,7 +4668,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -4610,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -4621,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -4632,7 +4701,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -4643,7 +4712,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -4654,7 +4723,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -4665,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -4676,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -4687,7 +4756,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -4698,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -4709,7 +4778,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -4720,7 +4789,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4731,7 +4800,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4742,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4753,7 +4822,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4764,7 +4833,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4775,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4786,7 +4855,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -4797,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -4808,7 +4877,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -4819,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -4830,7 +4899,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4841,7 +4910,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4852,7 +4921,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4863,7 +4932,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4874,7 +4943,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4885,7 +4954,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4896,7 +4965,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4907,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4918,7 +4987,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4929,7 +4998,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -4940,7 +5009,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4951,7 +5020,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4962,7 +5031,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4973,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4984,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4995,7 +5064,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5006,7 +5075,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -5017,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -5028,7 +5097,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5039,7 +5108,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5050,7 +5119,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -5061,7 +5130,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -5072,7 +5141,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5083,7 +5152,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5094,7 +5163,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5105,7 +5174,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5116,7 +5185,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5127,7 +5196,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5138,7 +5207,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5149,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5160,7 +5229,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5171,7 +5240,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5182,7 +5251,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5193,7 +5262,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -5204,7 +5273,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -5215,7 +5284,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -5250,10 +5319,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5261,10 +5330,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5272,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -5283,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -5294,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -5305,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -5316,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -5327,10 +5396,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5338,10 +5407,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5349,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -5360,10 +5429,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5371,10 +5440,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5382,10 +5451,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5393,10 +5462,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5404,10 +5473,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5415,10 +5484,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5426,10 +5495,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5437,10 +5506,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5448,10 +5517,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5459,10 +5528,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5470,10 +5539,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5481,10 +5550,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5492,10 +5561,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5503,10 +5572,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5514,10 +5583,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5525,10 +5594,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5536,10 +5605,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5547,10 +5616,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5558,10 +5627,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5572,7 +5641,7 @@
         <v>169</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5580,10 +5649,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5591,10 +5660,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5602,10 +5671,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5613,10 +5682,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5624,10 +5693,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5635,10 +5704,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5646,10 +5715,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5657,10 +5726,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5668,10 +5737,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5679,10 +5748,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5690,10 +5759,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>276</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5701,10 +5770,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5712,10 +5781,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>30</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5723,10 +5792,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5734,10 +5803,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5745,10 +5814,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5756,10 +5825,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5767,10 +5836,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>149</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5778,10 +5847,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5789,10 +5858,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5800,7 +5869,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52">
         <v>14</v>
@@ -5811,10 +5880,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5822,10 +5891,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5833,7 +5902,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -5844,7 +5913,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -5855,7 +5924,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -5866,10 +5935,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5877,10 +5946,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5888,10 +5957,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>283</v>
+        <v>58</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5899,10 +5968,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5910,10 +5979,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5921,10 +5990,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5932,10 +6001,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>293</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5943,10 +6012,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5954,7 +6023,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -5965,7 +6034,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -5976,7 +6045,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -5987,7 +6056,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -5998,7 +6067,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6009,7 +6078,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -6020,7 +6089,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -6031,7 +6100,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -6042,7 +6111,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -6053,7 +6122,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -6064,7 +6133,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6075,7 +6144,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -6086,7 +6155,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -6097,7 +6166,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -6108,7 +6177,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -6119,7 +6188,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -6130,7 +6199,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -6141,7 +6210,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -6152,7 +6221,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -6163,7 +6232,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -6174,7 +6243,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -6185,7 +6254,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -6196,7 +6265,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -6207,7 +6276,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -6218,7 +6287,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -6229,7 +6298,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -6240,7 +6309,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -6251,7 +6320,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -6262,7 +6331,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -6273,7 +6342,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -6284,7 +6353,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -6295,7 +6364,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -6306,7 +6375,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -6317,7 +6386,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -6328,7 +6397,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6339,7 +6408,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6350,7 +6419,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6361,7 +6430,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -6372,7 +6441,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6383,7 +6452,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6394,7 +6463,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6405,7 +6474,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6416,7 +6485,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6427,7 +6496,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6438,7 +6507,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6449,7 +6518,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6460,7 +6529,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -6471,7 +6540,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6482,7 +6551,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6493,7 +6562,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6504,7 +6573,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6515,7 +6584,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6526,7 +6595,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -6537,7 +6606,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -6548,7 +6617,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -6559,7 +6628,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -6570,7 +6639,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -6581,7 +6650,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -6592,7 +6661,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -6603,7 +6672,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -6614,7 +6683,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -6625,7 +6694,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -6636,7 +6705,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -6647,7 +6716,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -6658,7 +6727,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -6669,7 +6738,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -6704,10 +6773,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6715,10 +6784,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6726,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -6737,10 +6806,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6748,10 +6817,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6759,10 +6828,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6770,10 +6839,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>361</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6781,10 +6850,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6792,10 +6861,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6803,10 +6872,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6814,10 +6883,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6825,10 +6894,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>363</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6836,10 +6905,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6847,10 +6916,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>364</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6858,10 +6927,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>354</v>
+        <v>152</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6869,10 +6938,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6880,10 +6949,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6891,10 +6960,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6902,10 +6971,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>367</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6913,10 +6982,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6924,10 +6993,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>368</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6935,10 +7004,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6946,10 +7015,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>356</v>
+        <v>161</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6957,10 +7026,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6968,10 +7037,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6979,10 +7048,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6990,10 +7059,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7001,10 +7070,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7012,10 +7081,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7023,10 +7092,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7034,10 +7103,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>360</v>
+        <v>257</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7045,10 +7114,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7056,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -7067,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>373</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -7078,10 +7147,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>374</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7089,10 +7158,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7100,10 +7169,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7111,10 +7180,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>362</v>
+        <v>141</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7122,10 +7191,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -7133,10 +7202,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>363</v>
+        <v>260</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7144,10 +7213,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7155,10 +7224,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7166,10 +7235,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>365</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7177,10 +7246,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>259</v>
+        <v>379</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7188,10 +7257,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7199,10 +7268,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>381</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7210,10 +7279,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7221,10 +7290,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7232,10 +7301,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>369</v>
+        <v>279</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7243,10 +7312,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7254,7 +7323,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52">
         <v>8</v>
@@ -7265,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -7276,7 +7345,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -7287,7 +7356,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -7298,7 +7367,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>287</v>
+        <v>386</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -7309,10 +7378,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7320,7 +7389,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -7331,7 +7400,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -7342,7 +7411,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -7353,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -7364,7 +7433,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -7375,7 +7444,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -7386,7 +7455,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -7397,7 +7466,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -7408,7 +7477,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -7419,7 +7488,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -7430,7 +7499,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>383</v>
+        <v>286</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -7441,7 +7510,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>276</v>
+        <v>398</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -7452,7 +7521,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -7463,7 +7532,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -7474,7 +7543,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7485,7 +7554,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -7496,7 +7565,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -7507,7 +7576,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -7518,7 +7587,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -7529,7 +7598,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7540,7 +7609,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7551,7 +7620,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7562,7 +7631,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7573,7 +7642,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7584,7 +7653,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7595,7 +7664,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7606,7 +7675,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7617,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7628,7 +7697,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7639,7 +7708,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7650,7 +7719,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7661,7 +7730,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7672,7 +7741,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7683,7 +7752,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7694,7 +7763,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7705,7 +7774,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7716,7 +7785,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7727,7 +7796,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7738,7 +7807,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7749,7 +7818,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7760,7 +7829,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7771,7 +7840,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7782,7 +7851,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7793,7 +7862,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7804,7 +7873,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -7815,7 +7884,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -7826,7 +7895,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -7837,7 +7906,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -7848,7 +7917,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -7859,7 +7928,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -7870,7 +7939,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -7881,7 +7950,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -7892,7 +7961,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -7903,7 +7972,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -7914,7 +7983,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -7925,7 +7994,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -7936,7 +8005,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -7947,7 +8016,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -7958,7 +8027,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -7969,7 +8038,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -7980,7 +8049,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -7991,7 +8060,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -8002,7 +8071,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -8013,7 +8082,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -8024,7 +8093,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -8035,7 +8104,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -8046,7 +8115,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -8057,7 +8126,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -8068,7 +8137,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -8079,7 +8148,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -8090,7 +8159,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -8101,7 +8170,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -8112,7 +8181,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -8123,7 +8192,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -8158,10 +8227,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8169,10 +8238,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>460</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8180,10 +8249,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>137</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8191,10 +8260,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8202,10 +8271,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>368</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8213,10 +8282,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8224,10 +8293,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8235,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -8246,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>140</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -8257,10 +8326,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8268,10 +8337,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>147</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8279,10 +8348,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8290,10 +8359,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8301,10 +8370,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8312,10 +8381,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>462</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8323,10 +8392,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8334,10 +8403,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>447</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8345,10 +8414,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8356,10 +8425,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>464</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8367,10 +8436,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>369</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8378,10 +8447,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>465</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8389,10 +8458,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8400,10 +8469,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>355</v>
+        <v>258</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8411,10 +8480,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8422,10 +8491,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8433,10 +8502,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>373</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8444,10 +8513,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>449</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8455,10 +8524,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>467</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8466,10 +8535,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8477,10 +8546,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8488,10 +8557,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8499,10 +8568,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>451</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8510,10 +8579,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>469</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8521,10 +8590,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>279</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8532,10 +8601,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>470</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8543,10 +8612,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8554,10 +8623,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8565,10 +8634,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>368</v>
+        <v>473</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8576,10 +8645,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8587,10 +8656,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8598,10 +8667,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8609,10 +8678,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>260</v>
+        <v>477</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8620,10 +8689,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>258</v>
+        <v>478</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8631,10 +8700,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8642,10 +8711,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8653,10 +8722,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8664,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>482</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -8675,7 +8744,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>483</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -8686,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -8697,7 +8766,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>485</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -8708,7 +8777,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -8719,10 +8788,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>281</v>
+        <v>486</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8730,7 +8799,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -8741,7 +8810,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>461</v>
+        <v>285</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -8752,7 +8821,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -8763,7 +8832,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>282</v>
+        <v>489</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -8774,10 +8843,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8785,10 +8854,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>276</v>
+        <v>491</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8796,10 +8865,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8807,7 +8876,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -8818,7 +8887,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -8829,7 +8898,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -8840,7 +8909,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -8851,7 +8920,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -8862,7 +8931,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>470</v>
+        <v>385</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -8873,7 +8942,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -8884,7 +8953,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -8895,7 +8964,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -8906,7 +8975,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>371</v>
+        <v>289</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -8917,7 +8986,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -8928,7 +8997,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -8939,7 +9008,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -8950,7 +9019,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -8961,7 +9030,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -8972,7 +9041,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -8983,7 +9052,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -8994,7 +9063,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -9005,7 +9074,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -9016,7 +9085,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -9027,7 +9096,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -9038,7 +9107,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -9049,7 +9118,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -9060,7 +9129,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -9071,7 +9140,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -9082,7 +9151,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -9093,7 +9162,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -9104,7 +9173,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -9115,7 +9184,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -9126,7 +9195,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -9137,7 +9206,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -9148,7 +9217,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -9159,7 +9228,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -9170,7 +9239,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -9181,7 +9250,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -9192,7 +9261,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -9203,7 +9272,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -9214,7 +9283,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -9225,7 +9294,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -9236,7 +9305,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -9247,7 +9316,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -9258,7 +9327,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -9269,7 +9338,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -9280,7 +9349,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -9291,7 +9360,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -9302,7 +9371,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -9313,7 +9382,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -9324,7 +9393,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9335,7 +9404,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -9346,7 +9415,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9357,7 +9426,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9368,7 +9437,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -9379,7 +9448,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -9390,7 +9459,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -9401,7 +9470,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -9412,7 +9481,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9423,7 +9492,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9434,7 +9503,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9445,7 +9514,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9456,7 +9525,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9467,7 +9536,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9478,7 +9547,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9489,7 +9558,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9500,7 +9569,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9511,7 +9580,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9522,7 +9591,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9533,7 +9602,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9544,7 +9613,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9555,7 +9624,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9566,7 +9635,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9577,7 +9646,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9612,10 +9681,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9623,10 +9692,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9634,10 +9703,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>536</v>
+        <v>137</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9645,7 +9714,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>537</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -9656,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>279</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -9667,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -9678,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -9689,7 +9758,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -9700,7 +9769,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>563</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -9711,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -9722,7 +9791,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>464</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -9733,7 +9802,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>541</v>
+        <v>369</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -9744,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>542</v>
+        <v>480</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -9755,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>543</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -9766,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -9777,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>566</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -9788,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -9799,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -9810,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -9821,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -9832,7 +9901,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9843,7 +9912,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9854,7 +9923,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>570</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -9865,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9876,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -9887,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -9898,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>551</v>
+        <v>141</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -9909,7 +9978,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>574</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -9920,7 +9989,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>575</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -9931,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -9942,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>553</v>
+        <v>260</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -9953,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>554</v>
+        <v>138</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -9964,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>266</v>
+        <v>577</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -9975,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>578</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -9986,7 +10055,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>579</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -9997,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -10008,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -10019,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>557</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -10030,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -10041,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -10052,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -10063,7 +10132,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -10074,7 +10143,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -10085,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>563</v>
+        <v>469</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -10096,7 +10165,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -10107,7 +10176,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -10118,7 +10187,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -10129,7 +10198,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -10140,7 +10209,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -10151,7 +10220,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -10162,7 +10231,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -10173,7 +10242,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -10195,7 +10264,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -10206,7 +10275,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -10217,7 +10286,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -10228,7 +10297,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -10239,7 +10308,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -10250,7 +10319,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -10261,7 +10330,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -10272,7 +10341,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -10283,7 +10352,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -10294,7 +10363,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -10305,7 +10374,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -10316,7 +10385,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -10327,7 +10396,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -10338,7 +10407,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -10349,7 +10418,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -10360,7 +10429,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -10371,7 +10440,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -10382,7 +10451,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -10393,7 +10462,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -10404,7 +10473,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -10415,7 +10484,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -10426,7 +10495,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -10437,7 +10506,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -10448,7 +10517,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -10459,7 +10528,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -10470,7 +10539,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -10481,7 +10550,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -10492,7 +10561,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -10503,7 +10572,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -10514,7 +10583,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -10525,7 +10594,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -10536,7 +10605,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -10547,7 +10616,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -10558,7 +10627,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -10569,7 +10638,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -10580,7 +10649,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -10591,7 +10660,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -10602,7 +10671,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -10613,7 +10682,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -10624,7 +10693,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -10635,7 +10704,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -10646,7 +10715,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -10657,7 +10726,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -10668,7 +10737,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -10679,7 +10748,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -10690,7 +10759,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -10701,7 +10770,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -10712,7 +10781,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -10723,7 +10792,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -10734,7 +10803,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -10745,7 +10814,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -10756,7 +10825,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -10767,7 +10836,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -10778,7 +10847,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -10789,7 +10858,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -10800,7 +10869,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -10811,7 +10880,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -10822,7 +10891,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -10833,7 +10902,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -10844,7 +10913,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -10855,7 +10924,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -10866,7 +10935,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -10877,7 +10946,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -10888,7 +10957,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -10899,7 +10968,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -10910,7 +10979,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -10921,7 +10990,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -10932,7 +11001,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -10943,7 +11012,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -10954,7 +11023,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -10965,7 +11034,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -10976,7 +11045,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -10987,7 +11056,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -10998,7 +11067,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -11009,7 +11078,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -11020,7 +11089,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -11031,7 +11100,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>647</v>
+        <v>670</v>
       </c>
       <c r="C131">
         <v>1</v>
